--- a/inst/application/data/excel_templates/Annual_OutputFile_Template__R.xlsx
+++ b/inst/application/data/excel_templates/Annual_OutputFile_Template__R.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74052811-6100-411F-9334-77C18BB4E5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04223024-2F40-4EAF-A319-B29177AAA131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identification" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="298">
   <si>
     <t>Scenario</t>
   </si>
@@ -918,18 +918,6 @@
   <si>
     <t>FR00</t>
   </si>
-  <si>
-    <t>globalSurplus</t>
-  </si>
-  <si>
-    <t>producerSurplus</t>
-  </si>
-  <si>
-    <t>consumerSurplus</t>
-  </si>
-  <si>
-    <t>congestionFees</t>
-  </si>
 </sst>
 </file>
 
@@ -1601,6 +1589,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1628,20 +1619,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1683,9 +1674,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1975,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2023,17 +2011,17 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
@@ -2067,11 +2055,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
@@ -3193,7 +3181,7 @@
   <dimension ref="A1:CL208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="CN17" sqref="CN17"/>
@@ -3334,7 +3322,7 @@
       <c r="CL6" s="30"/>
     </row>
     <row r="7" spans="1:90">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3430,7 +3418,7 @@
       <c r="CL7" s="28"/>
     </row>
     <row r="8" spans="1:90">
-      <c r="A8" s="84"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +3512,7 @@
       <c r="CL8" s="28"/>
     </row>
     <row r="9" spans="1:90">
-      <c r="A9" s="84"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3618,7 +3606,7 @@
       <c r="CL9" s="28"/>
     </row>
     <row r="10" spans="1:90">
-      <c r="A10" s="84"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -3712,7 +3700,7 @@
       <c r="CL10" s="28"/>
     </row>
     <row r="11" spans="1:90">
-      <c r="A11" s="84"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3806,7 +3794,7 @@
       <c r="CL11" s="28"/>
     </row>
     <row r="12" spans="1:90">
-      <c r="A12" s="84"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3900,7 +3888,7 @@
       <c r="CL12" s="28"/>
     </row>
     <row r="13" spans="1:90">
-      <c r="A13" s="84"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3994,7 +3982,7 @@
       <c r="CL13" s="28"/>
     </row>
     <row r="14" spans="1:90">
-      <c r="A14" s="84"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -4088,7 +4076,7 @@
       <c r="CL14" s="28"/>
     </row>
     <row r="15" spans="1:90">
-      <c r="A15" s="84"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -4182,7 +4170,7 @@
       <c r="CL15" s="28"/>
     </row>
     <row r="16" spans="1:90">
-      <c r="A16" s="84"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
@@ -4276,7 +4264,7 @@
       <c r="CL16" s="28"/>
     </row>
     <row r="17" spans="1:90">
-      <c r="A17" s="84"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
@@ -4370,7 +4358,7 @@
       <c r="CL17" s="28"/>
     </row>
     <row r="18" spans="1:90">
-      <c r="A18" s="84"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -4464,7 +4452,7 @@
       <c r="CL18" s="28"/>
     </row>
     <row r="19" spans="1:90">
-      <c r="A19" s="84"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
@@ -4558,7 +4546,7 @@
       <c r="CL19" s="28"/>
     </row>
     <row r="20" spans="1:90">
-      <c r="A20" s="84"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
@@ -4652,7 +4640,7 @@
       <c r="CL20" s="28"/>
     </row>
     <row r="21" spans="1:90">
-      <c r="A21" s="84"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -4746,7 +4734,7 @@
       <c r="CL21" s="28"/>
     </row>
     <row r="22" spans="1:90">
-      <c r="A22" s="84"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
@@ -4840,7 +4828,7 @@
       <c r="CL22" s="28"/>
     </row>
     <row r="23" spans="1:90">
-      <c r="A23" s="84"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -4934,7 +4922,7 @@
       <c r="CL23" s="28"/>
     </row>
     <row r="24" spans="1:90">
-      <c r="A24" s="84"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
@@ -5028,7 +5016,7 @@
       <c r="CL24" s="28"/>
     </row>
     <row r="25" spans="1:90">
-      <c r="A25" s="84"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
@@ -5122,7 +5110,7 @@
       <c r="CL25" s="28"/>
     </row>
     <row r="26" spans="1:90">
-      <c r="A26" s="84"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5204,7 @@
       <c r="CL26" s="28"/>
     </row>
     <row r="27" spans="1:90">
-      <c r="A27" s="84"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
@@ -5310,7 +5298,7 @@
       <c r="CL27" s="28"/>
     </row>
     <row r="28" spans="1:90">
-      <c r="A28" s="84"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
@@ -5404,7 +5392,7 @@
       <c r="CL28" s="28"/>
     </row>
     <row r="29" spans="1:90">
-      <c r="A29" s="84"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
@@ -5498,7 +5486,7 @@
       <c r="CL29" s="28"/>
     </row>
     <row r="30" spans="1:90">
-      <c r="A30" s="84"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
@@ -5592,7 +5580,7 @@
       <c r="CL30" s="28"/>
     </row>
     <row r="31" spans="1:90">
-      <c r="A31" s="84"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="8" t="s">
         <v>36</v>
       </c>
@@ -5686,7 +5674,7 @@
       <c r="CL31" s="28"/>
     </row>
     <row r="32" spans="1:90">
-      <c r="A32" s="84"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
@@ -5780,7 +5768,7 @@
       <c r="CL32" s="28"/>
     </row>
     <row r="33" spans="1:90">
-      <c r="A33" s="84"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
@@ -5874,7 +5862,7 @@
       <c r="CL33" s="58"/>
     </row>
     <row r="34" spans="1:90">
-      <c r="A34" s="84"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
@@ -5968,7 +5956,7 @@
       <c r="CL34" s="58"/>
     </row>
     <row r="35" spans="1:90">
-      <c r="A35" s="84"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
@@ -6062,7 +6050,7 @@
       <c r="CL35" s="28"/>
     </row>
     <row r="36" spans="1:90">
-      <c r="A36" s="84"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -6156,7 +6144,7 @@
       <c r="CL36" s="28"/>
     </row>
     <row r="37" spans="1:90">
-      <c r="A37" s="84"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
@@ -6250,7 +6238,7 @@
       <c r="CL37" s="28"/>
     </row>
     <row r="38" spans="1:90">
-      <c r="A38" s="84"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="7" t="s">
         <v>43</v>
       </c>
@@ -6344,7 +6332,7 @@
       <c r="CL38" s="58"/>
     </row>
     <row r="39" spans="1:90">
-      <c r="A39" s="84"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
@@ -6438,7 +6426,7 @@
       <c r="CL39" s="28"/>
     </row>
     <row r="40" spans="1:90">
-      <c r="A40" s="84"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
@@ -6532,7 +6520,7 @@
       <c r="CL40" s="58"/>
     </row>
     <row r="41" spans="1:90">
-      <c r="A41" s="84"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
@@ -6626,7 +6614,7 @@
       <c r="CL41" s="28"/>
     </row>
     <row r="42" spans="1:90">
-      <c r="A42" s="84"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
@@ -6720,7 +6708,7 @@
       <c r="CL42" s="28"/>
     </row>
     <row r="43" spans="1:90">
-      <c r="A43" s="84"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="7" t="s">
         <v>48</v>
       </c>
@@ -6814,7 +6802,7 @@
       <c r="CL43" s="28"/>
     </row>
     <row r="44" spans="1:90">
-      <c r="A44" s="84"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="7" t="s">
         <v>49</v>
       </c>
@@ -6908,7 +6896,7 @@
       <c r="CL44" s="28"/>
     </row>
     <row r="45" spans="1:90">
-      <c r="A45" s="84"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="7" t="s">
         <v>50</v>
       </c>
@@ -7002,7 +6990,7 @@
       <c r="CL45" s="28"/>
     </row>
     <row r="46" spans="1:90">
-      <c r="A46" s="84"/>
+      <c r="A46" s="88"/>
       <c r="B46" s="7" t="s">
         <v>51</v>
       </c>
@@ -7096,7 +7084,7 @@
       <c r="CL46" s="28"/>
     </row>
     <row r="47" spans="1:90">
-      <c r="A47" s="84"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="7" t="s">
         <v>52</v>
       </c>
@@ -7190,7 +7178,7 @@
       <c r="CL47" s="28"/>
     </row>
     <row r="48" spans="1:90">
-      <c r="A48" s="84"/>
+      <c r="A48" s="88"/>
       <c r="B48" s="7" t="s">
         <v>53</v>
       </c>
@@ -7284,7 +7272,7 @@
       <c r="CL48" s="28"/>
     </row>
     <row r="49" spans="1:90">
-      <c r="A49" s="84"/>
+      <c r="A49" s="88"/>
       <c r="B49" s="7" t="s">
         <v>54</v>
       </c>
@@ -7378,7 +7366,7 @@
       <c r="CL49" s="58"/>
     </row>
     <row r="50" spans="1:90">
-      <c r="A50" s="84"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="7" t="s">
         <v>55</v>
       </c>
@@ -7472,7 +7460,7 @@
       <c r="CL50" s="58"/>
     </row>
     <row r="51" spans="1:90">
-      <c r="A51" s="84"/>
+      <c r="A51" s="88"/>
       <c r="B51" s="7" t="s">
         <v>56</v>
       </c>
@@ -7566,7 +7554,7 @@
       <c r="CL51" s="58"/>
     </row>
     <row r="52" spans="1:90">
-      <c r="A52" s="84"/>
+      <c r="A52" s="88"/>
       <c r="B52" s="7" t="s">
         <v>57</v>
       </c>
@@ -7660,7 +7648,7 @@
       <c r="CL52" s="58"/>
     </row>
     <row r="53" spans="1:90">
-      <c r="A53" s="84"/>
+      <c r="A53" s="88"/>
       <c r="B53" s="7" t="s">
         <v>58</v>
       </c>
@@ -7754,10 +7742,10 @@
       <c r="CL53" s="58"/>
     </row>
     <row r="54" spans="1:90">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="83"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
@@ -7848,10 +7836,10 @@
       <c r="CL54" s="63"/>
     </row>
     <row r="55" spans="1:90">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="83"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
       <c r="E55" s="64"/>
@@ -7942,10 +7930,10 @@
       <c r="CL55" s="64"/>
     </row>
     <row r="56" spans="1:90">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="64"/>
       <c r="D56" s="64"/>
       <c r="E56" s="64"/>
@@ -8036,10 +8024,10 @@
       <c r="CL56" s="64"/>
     </row>
     <row r="57" spans="1:90">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="83"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="64"/>
       <c r="D57" s="64"/>
       <c r="E57" s="64"/>
@@ -8130,10 +8118,10 @@
       <c r="CL57" s="64"/>
     </row>
     <row r="58" spans="1:90">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="83"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="64"/>
       <c r="D58" s="64"/>
       <c r="E58" s="64"/>
@@ -8224,10 +8212,10 @@
       <c r="CL58" s="64"/>
     </row>
     <row r="59" spans="1:90">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="86"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
       <c r="E59" s="64"/>
@@ -8318,10 +8306,10 @@
       <c r="CL59" s="64"/>
     </row>
     <row r="60" spans="1:90">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="83"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
@@ -8412,10 +8400,10 @@
       <c r="CL60" s="65"/>
     </row>
     <row r="61" spans="1:90">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="83"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="51"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
@@ -8506,10 +8494,10 @@
       <c r="CL61" s="72"/>
     </row>
     <row r="62" spans="1:90">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="83"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="65"/>
       <c r="D62" s="65"/>
       <c r="E62" s="65"/>
@@ -8600,10 +8588,10 @@
       <c r="CL62" s="65"/>
     </row>
     <row r="63" spans="1:90">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="83"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="65"/>
       <c r="D63" s="65"/>
       <c r="E63" s="65"/>
@@ -13114,7 +13102,7 @@
       <c r="CL110" s="67"/>
     </row>
     <row r="111" spans="1:90">
-      <c r="A111" s="84" t="s">
+      <c r="A111" s="88" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -13210,7 +13198,7 @@
       <c r="CL111" s="68"/>
     </row>
     <row r="112" spans="1:90">
-      <c r="A112" s="84"/>
+      <c r="A112" s="88"/>
       <c r="B112" s="11" t="s">
         <v>13</v>
       </c>
@@ -13304,7 +13292,7 @@
       <c r="CL112" s="68"/>
     </row>
     <row r="113" spans="1:90">
-      <c r="A113" s="84"/>
+      <c r="A113" s="88"/>
       <c r="B113" s="11" t="s">
         <v>14</v>
       </c>
@@ -13398,7 +13386,7 @@
       <c r="CL113" s="68"/>
     </row>
     <row r="114" spans="1:90">
-      <c r="A114" s="84"/>
+      <c r="A114" s="88"/>
       <c r="B114" s="11" t="s">
         <v>15</v>
       </c>
@@ -13492,7 +13480,7 @@
       <c r="CL114" s="68"/>
     </row>
     <row r="115" spans="1:90">
-      <c r="A115" s="84"/>
+      <c r="A115" s="88"/>
       <c r="B115" s="11" t="s">
         <v>16</v>
       </c>
@@ -13586,7 +13574,7 @@
       <c r="CL115" s="68"/>
     </row>
     <row r="116" spans="1:90">
-      <c r="A116" s="84"/>
+      <c r="A116" s="88"/>
       <c r="B116" s="11" t="s">
         <v>17</v>
       </c>
@@ -13680,7 +13668,7 @@
       <c r="CL116" s="68"/>
     </row>
     <row r="117" spans="1:90">
-      <c r="A117" s="84"/>
+      <c r="A117" s="88"/>
       <c r="B117" s="11" t="s">
         <v>18</v>
       </c>
@@ -13774,7 +13762,7 @@
       <c r="CL117" s="68"/>
     </row>
     <row r="118" spans="1:90">
-      <c r="A118" s="84"/>
+      <c r="A118" s="88"/>
       <c r="B118" s="11" t="s">
         <v>19</v>
       </c>
@@ -13868,7 +13856,7 @@
       <c r="CL118" s="68"/>
     </row>
     <row r="119" spans="1:90">
-      <c r="A119" s="84"/>
+      <c r="A119" s="88"/>
       <c r="B119" s="11" t="s">
         <v>20</v>
       </c>
@@ -13962,7 +13950,7 @@
       <c r="CL119" s="68"/>
     </row>
     <row r="120" spans="1:90">
-      <c r="A120" s="84"/>
+      <c r="A120" s="88"/>
       <c r="B120" s="11" t="s">
         <v>21</v>
       </c>
@@ -14056,7 +14044,7 @@
       <c r="CL120" s="68"/>
     </row>
     <row r="121" spans="1:90">
-      <c r="A121" s="84"/>
+      <c r="A121" s="88"/>
       <c r="B121" s="11" t="s">
         <v>22</v>
       </c>
@@ -14150,7 +14138,7 @@
       <c r="CL121" s="68"/>
     </row>
     <row r="122" spans="1:90">
-      <c r="A122" s="84"/>
+      <c r="A122" s="88"/>
       <c r="B122" s="11" t="s">
         <v>23</v>
       </c>
@@ -14244,7 +14232,7 @@
       <c r="CL122" s="68"/>
     </row>
     <row r="123" spans="1:90">
-      <c r="A123" s="84"/>
+      <c r="A123" s="88"/>
       <c r="B123" s="11" t="s">
         <v>24</v>
       </c>
@@ -14338,7 +14326,7 @@
       <c r="CL123" s="68"/>
     </row>
     <row r="124" spans="1:90">
-      <c r="A124" s="84"/>
+      <c r="A124" s="88"/>
       <c r="B124" s="11" t="s">
         <v>25</v>
       </c>
@@ -14432,7 +14420,7 @@
       <c r="CL124" s="68"/>
     </row>
     <row r="125" spans="1:90">
-      <c r="A125" s="84"/>
+      <c r="A125" s="88"/>
       <c r="B125" s="11" t="s">
         <v>26</v>
       </c>
@@ -14526,7 +14514,7 @@
       <c r="CL125" s="68"/>
     </row>
     <row r="126" spans="1:90">
-      <c r="A126" s="84"/>
+      <c r="A126" s="88"/>
       <c r="B126" s="11" t="s">
         <v>27</v>
       </c>
@@ -14620,7 +14608,7 @@
       <c r="CL126" s="68"/>
     </row>
     <row r="127" spans="1:90">
-      <c r="A127" s="84"/>
+      <c r="A127" s="88"/>
       <c r="B127" s="11" t="s">
         <v>28</v>
       </c>
@@ -14714,7 +14702,7 @@
       <c r="CL127" s="68"/>
     </row>
     <row r="128" spans="1:90">
-      <c r="A128" s="84"/>
+      <c r="A128" s="88"/>
       <c r="B128" s="11" t="s">
         <v>29</v>
       </c>
@@ -14808,7 +14796,7 @@
       <c r="CL128" s="68"/>
     </row>
     <row r="129" spans="1:90">
-      <c r="A129" s="84"/>
+      <c r="A129" s="88"/>
       <c r="B129" s="11" t="s">
         <v>30</v>
       </c>
@@ -14902,7 +14890,7 @@
       <c r="CL129" s="68"/>
     </row>
     <row r="130" spans="1:90">
-      <c r="A130" s="84"/>
+      <c r="A130" s="88"/>
       <c r="B130" s="11" t="s">
         <v>31</v>
       </c>
@@ -14996,7 +14984,7 @@
       <c r="CL130" s="68"/>
     </row>
     <row r="131" spans="1:90">
-      <c r="A131" s="84"/>
+      <c r="A131" s="88"/>
       <c r="B131" s="11" t="s">
         <v>32</v>
       </c>
@@ -15090,7 +15078,7 @@
       <c r="CL131" s="68"/>
     </row>
     <row r="132" spans="1:90">
-      <c r="A132" s="84"/>
+      <c r="A132" s="88"/>
       <c r="B132" s="11" t="s">
         <v>33</v>
       </c>
@@ -15184,7 +15172,7 @@
       <c r="CL132" s="68"/>
     </row>
     <row r="133" spans="1:90">
-      <c r="A133" s="84"/>
+      <c r="A133" s="88"/>
       <c r="B133" s="11" t="s">
         <v>34</v>
       </c>
@@ -15278,7 +15266,7 @@
       <c r="CL133" s="68"/>
     </row>
     <row r="134" spans="1:90">
-      <c r="A134" s="84"/>
+      <c r="A134" s="88"/>
       <c r="B134" s="12" t="s">
         <v>35</v>
       </c>
@@ -15372,7 +15360,7 @@
       <c r="CL134" s="68"/>
     </row>
     <row r="135" spans="1:90">
-      <c r="A135" s="84"/>
+      <c r="A135" s="88"/>
       <c r="B135" s="12" t="s">
         <v>36</v>
       </c>
@@ -15466,7 +15454,7 @@
       <c r="CL135" s="68"/>
     </row>
     <row r="136" spans="1:90">
-      <c r="A136" s="84"/>
+      <c r="A136" s="88"/>
       <c r="B136" s="12" t="s">
         <v>37</v>
       </c>
@@ -15560,7 +15548,7 @@
       <c r="CL136" s="68"/>
     </row>
     <row r="137" spans="1:90">
-      <c r="A137" s="84"/>
+      <c r="A137" s="88"/>
       <c r="B137" s="12" t="s">
         <v>38</v>
       </c>
@@ -15654,7 +15642,7 @@
       <c r="CL137" s="68"/>
     </row>
     <row r="138" spans="1:90">
-      <c r="A138" s="84"/>
+      <c r="A138" s="88"/>
       <c r="B138" s="12" t="s">
         <v>39</v>
       </c>
@@ -15748,7 +15736,7 @@
       <c r="CL138" s="68"/>
     </row>
     <row r="139" spans="1:90">
-      <c r="A139" s="84"/>
+      <c r="A139" s="88"/>
       <c r="B139" s="11" t="s">
         <v>40</v>
       </c>
@@ -15842,7 +15830,7 @@
       <c r="CL139" s="68"/>
     </row>
     <row r="140" spans="1:90">
-      <c r="A140" s="84"/>
+      <c r="A140" s="88"/>
       <c r="B140" s="11" t="s">
         <v>41</v>
       </c>
@@ -15936,7 +15924,7 @@
       <c r="CL140" s="68"/>
     </row>
     <row r="141" spans="1:90">
-      <c r="A141" s="84"/>
+      <c r="A141" s="88"/>
       <c r="B141" s="11" t="s">
         <v>42</v>
       </c>
@@ -16030,7 +16018,7 @@
       <c r="CL141" s="68"/>
     </row>
     <row r="142" spans="1:90">
-      <c r="A142" s="84"/>
+      <c r="A142" s="88"/>
       <c r="B142" s="11" t="s">
         <v>43</v>
       </c>
@@ -16124,7 +16112,7 @@
       <c r="CL142" s="68"/>
     </row>
     <row r="143" spans="1:90">
-      <c r="A143" s="84"/>
+      <c r="A143" s="88"/>
       <c r="B143" s="11" t="s">
         <v>44</v>
       </c>
@@ -16218,7 +16206,7 @@
       <c r="CL143" s="68"/>
     </row>
     <row r="144" spans="1:90">
-      <c r="A144" s="84"/>
+      <c r="A144" s="88"/>
       <c r="B144" s="11" t="s">
         <v>45</v>
       </c>
@@ -16312,7 +16300,7 @@
       <c r="CL144" s="68"/>
     </row>
     <row r="145" spans="1:90">
-      <c r="A145" s="84"/>
+      <c r="A145" s="88"/>
       <c r="B145" s="11" t="s">
         <v>46</v>
       </c>
@@ -16406,7 +16394,7 @@
       <c r="CL145" s="68"/>
     </row>
     <row r="146" spans="1:90">
-      <c r="A146" s="84"/>
+      <c r="A146" s="88"/>
       <c r="B146" s="11" t="s">
         <v>47</v>
       </c>
@@ -16500,7 +16488,7 @@
       <c r="CL146" s="68"/>
     </row>
     <row r="147" spans="1:90">
-      <c r="A147" s="84"/>
+      <c r="A147" s="88"/>
       <c r="B147" s="11" t="s">
         <v>48</v>
       </c>
@@ -16594,7 +16582,7 @@
       <c r="CL147" s="68"/>
     </row>
     <row r="148" spans="1:90">
-      <c r="A148" s="84"/>
+      <c r="A148" s="88"/>
       <c r="B148" s="11" t="s">
         <v>49</v>
       </c>
@@ -16688,7 +16676,7 @@
       <c r="CL148" s="68"/>
     </row>
     <row r="149" spans="1:90">
-      <c r="A149" s="84"/>
+      <c r="A149" s="88"/>
       <c r="B149" s="11" t="s">
         <v>50</v>
       </c>
@@ -16782,7 +16770,7 @@
       <c r="CL149" s="68"/>
     </row>
     <row r="150" spans="1:90">
-      <c r="A150" s="84"/>
+      <c r="A150" s="88"/>
       <c r="B150" s="11" t="s">
         <v>51</v>
       </c>
@@ -16876,7 +16864,7 @@
       <c r="CL150" s="68"/>
     </row>
     <row r="151" spans="1:90">
-      <c r="A151" s="84"/>
+      <c r="A151" s="88"/>
       <c r="B151" s="11" t="s">
         <v>52</v>
       </c>
@@ -16970,7 +16958,7 @@
       <c r="CL151" s="68"/>
     </row>
     <row r="152" spans="1:90">
-      <c r="A152" s="84"/>
+      <c r="A152" s="88"/>
       <c r="B152" s="11" t="s">
         <v>53</v>
       </c>
@@ -17064,7 +17052,7 @@
       <c r="CL152" s="68"/>
     </row>
     <row r="153" spans="1:90">
-      <c r="A153" s="84"/>
+      <c r="A153" s="88"/>
       <c r="B153" s="11" t="s">
         <v>54</v>
       </c>
@@ -17158,7 +17146,7 @@
       <c r="CL153" s="68"/>
     </row>
     <row r="154" spans="1:90">
-      <c r="A154" s="84"/>
+      <c r="A154" s="88"/>
       <c r="B154" s="11" t="s">
         <v>55</v>
       </c>
@@ -17252,7 +17240,7 @@
       <c r="CL154" s="68"/>
     </row>
     <row r="155" spans="1:90">
-      <c r="A155" s="84"/>
+      <c r="A155" s="88"/>
       <c r="B155" s="11" t="s">
         <v>56</v>
       </c>
@@ -17346,7 +17334,7 @@
       <c r="CL155" s="68"/>
     </row>
     <row r="156" spans="1:90">
-      <c r="A156" s="84"/>
+      <c r="A156" s="88"/>
       <c r="B156" s="11" t="s">
         <v>57</v>
       </c>
@@ -17440,7 +17428,7 @@
       <c r="CL156" s="68"/>
     </row>
     <row r="157" spans="1:90">
-      <c r="A157" s="84"/>
+      <c r="A157" s="88"/>
       <c r="B157" s="11" t="s">
         <v>58</v>
       </c>
@@ -17534,7 +17522,7 @@
       <c r="CL157" s="68"/>
     </row>
     <row r="158" spans="1:90">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="88" t="s">
         <v>71</v>
       </c>
       <c r="B158" s="13" t="s">
@@ -17630,7 +17618,7 @@
       <c r="CL158" s="69"/>
     </row>
     <row r="159" spans="1:90">
-      <c r="A159" s="84"/>
+      <c r="A159" s="88"/>
       <c r="B159" s="13" t="s">
         <v>13</v>
       </c>
@@ -17724,7 +17712,7 @@
       <c r="CL159" s="69"/>
     </row>
     <row r="160" spans="1:90">
-      <c r="A160" s="84"/>
+      <c r="A160" s="88"/>
       <c r="B160" s="13" t="s">
         <v>14</v>
       </c>
@@ -17818,7 +17806,7 @@
       <c r="CL160" s="69"/>
     </row>
     <row r="161" spans="1:90">
-      <c r="A161" s="84"/>
+      <c r="A161" s="88"/>
       <c r="B161" s="13" t="s">
         <v>15</v>
       </c>
@@ -17912,7 +17900,7 @@
       <c r="CL161" s="69"/>
     </row>
     <row r="162" spans="1:90">
-      <c r="A162" s="84"/>
+      <c r="A162" s="88"/>
       <c r="B162" s="13" t="s">
         <v>16</v>
       </c>
@@ -18006,7 +17994,7 @@
       <c r="CL162" s="69"/>
     </row>
     <row r="163" spans="1:90">
-      <c r="A163" s="84"/>
+      <c r="A163" s="88"/>
       <c r="B163" s="13" t="s">
         <v>17</v>
       </c>
@@ -18100,7 +18088,7 @@
       <c r="CL163" s="69"/>
     </row>
     <row r="164" spans="1:90">
-      <c r="A164" s="84"/>
+      <c r="A164" s="88"/>
       <c r="B164" s="13" t="s">
         <v>18</v>
       </c>
@@ -18194,7 +18182,7 @@
       <c r="CL164" s="69"/>
     </row>
     <row r="165" spans="1:90">
-      <c r="A165" s="84"/>
+      <c r="A165" s="88"/>
       <c r="B165" s="13" t="s">
         <v>19</v>
       </c>
@@ -18288,7 +18276,7 @@
       <c r="CL165" s="69"/>
     </row>
     <row r="166" spans="1:90">
-      <c r="A166" s="84"/>
+      <c r="A166" s="88"/>
       <c r="B166" s="13" t="s">
         <v>20</v>
       </c>
@@ -18382,7 +18370,7 @@
       <c r="CL166" s="69"/>
     </row>
     <row r="167" spans="1:90">
-      <c r="A167" s="84"/>
+      <c r="A167" s="88"/>
       <c r="B167" s="13" t="s">
         <v>21</v>
       </c>
@@ -18476,7 +18464,7 @@
       <c r="CL167" s="69"/>
     </row>
     <row r="168" spans="1:90">
-      <c r="A168" s="84"/>
+      <c r="A168" s="88"/>
       <c r="B168" s="13" t="s">
         <v>22</v>
       </c>
@@ -18570,7 +18558,7 @@
       <c r="CL168" s="69"/>
     </row>
     <row r="169" spans="1:90">
-      <c r="A169" s="84"/>
+      <c r="A169" s="88"/>
       <c r="B169" s="13" t="s">
         <v>23</v>
       </c>
@@ -18664,7 +18652,7 @@
       <c r="CL169" s="69"/>
     </row>
     <row r="170" spans="1:90">
-      <c r="A170" s="84"/>
+      <c r="A170" s="88"/>
       <c r="B170" s="13" t="s">
         <v>24</v>
       </c>
@@ -18758,7 +18746,7 @@
       <c r="CL170" s="69"/>
     </row>
     <row r="171" spans="1:90">
-      <c r="A171" s="84"/>
+      <c r="A171" s="88"/>
       <c r="B171" s="13" t="s">
         <v>25</v>
       </c>
@@ -18852,7 +18840,7 @@
       <c r="CL171" s="69"/>
     </row>
     <row r="172" spans="1:90">
-      <c r="A172" s="84"/>
+      <c r="A172" s="88"/>
       <c r="B172" s="13" t="s">
         <v>26</v>
       </c>
@@ -18946,7 +18934,7 @@
       <c r="CL172" s="69"/>
     </row>
     <row r="173" spans="1:90">
-      <c r="A173" s="84"/>
+      <c r="A173" s="88"/>
       <c r="B173" s="13" t="s">
         <v>27</v>
       </c>
@@ -19040,7 +19028,7 @@
       <c r="CL173" s="69"/>
     </row>
     <row r="174" spans="1:90">
-      <c r="A174" s="84"/>
+      <c r="A174" s="88"/>
       <c r="B174" s="13" t="s">
         <v>28</v>
       </c>
@@ -19134,7 +19122,7 @@
       <c r="CL174" s="69"/>
     </row>
     <row r="175" spans="1:90">
-      <c r="A175" s="84"/>
+      <c r="A175" s="88"/>
       <c r="B175" s="13" t="s">
         <v>29</v>
       </c>
@@ -19228,7 +19216,7 @@
       <c r="CL175" s="69"/>
     </row>
     <row r="176" spans="1:90">
-      <c r="A176" s="84"/>
+      <c r="A176" s="88"/>
       <c r="B176" s="13" t="s">
         <v>30</v>
       </c>
@@ -19322,7 +19310,7 @@
       <c r="CL176" s="69"/>
     </row>
     <row r="177" spans="1:90">
-      <c r="A177" s="84"/>
+      <c r="A177" s="88"/>
       <c r="B177" s="13" t="s">
         <v>31</v>
       </c>
@@ -19416,7 +19404,7 @@
       <c r="CL177" s="69"/>
     </row>
     <row r="178" spans="1:90">
-      <c r="A178" s="84"/>
+      <c r="A178" s="88"/>
       <c r="B178" s="13" t="s">
         <v>32</v>
       </c>
@@ -19510,7 +19498,7 @@
       <c r="CL178" s="69"/>
     </row>
     <row r="179" spans="1:90">
-      <c r="A179" s="84"/>
+      <c r="A179" s="88"/>
       <c r="B179" s="13" t="s">
         <v>33</v>
       </c>
@@ -19604,7 +19592,7 @@
       <c r="CL179" s="69"/>
     </row>
     <row r="180" spans="1:90">
-      <c r="A180" s="84"/>
+      <c r="A180" s="88"/>
       <c r="B180" s="13" t="s">
         <v>34</v>
       </c>
@@ -19698,7 +19686,7 @@
       <c r="CL180" s="69"/>
     </row>
     <row r="181" spans="1:90">
-      <c r="A181" s="84"/>
+      <c r="A181" s="88"/>
       <c r="B181" s="14" t="s">
         <v>35</v>
       </c>
@@ -19792,7 +19780,7 @@
       <c r="CL181" s="69"/>
     </row>
     <row r="182" spans="1:90">
-      <c r="A182" s="84"/>
+      <c r="A182" s="88"/>
       <c r="B182" s="14" t="s">
         <v>36</v>
       </c>
@@ -19886,7 +19874,7 @@
       <c r="CL182" s="69"/>
     </row>
     <row r="183" spans="1:90">
-      <c r="A183" s="84"/>
+      <c r="A183" s="88"/>
       <c r="B183" s="14" t="s">
         <v>37</v>
       </c>
@@ -19980,7 +19968,7 @@
       <c r="CL183" s="69"/>
     </row>
     <row r="184" spans="1:90">
-      <c r="A184" s="84"/>
+      <c r="A184" s="88"/>
       <c r="B184" s="14" t="s">
         <v>38</v>
       </c>
@@ -20074,7 +20062,7 @@
       <c r="CL184" s="69"/>
     </row>
     <row r="185" spans="1:90">
-      <c r="A185" s="84"/>
+      <c r="A185" s="88"/>
       <c r="B185" s="14" t="s">
         <v>39</v>
       </c>
@@ -20168,7 +20156,7 @@
       <c r="CL185" s="69"/>
     </row>
     <row r="186" spans="1:90">
-      <c r="A186" s="84"/>
+      <c r="A186" s="88"/>
       <c r="B186" s="13" t="s">
         <v>40</v>
       </c>
@@ -20262,7 +20250,7 @@
       <c r="CL186" s="69"/>
     </row>
     <row r="187" spans="1:90">
-      <c r="A187" s="84"/>
+      <c r="A187" s="88"/>
       <c r="B187" s="13" t="s">
         <v>41</v>
       </c>
@@ -20356,7 +20344,7 @@
       <c r="CL187" s="69"/>
     </row>
     <row r="188" spans="1:90">
-      <c r="A188" s="84"/>
+      <c r="A188" s="88"/>
       <c r="B188" s="13" t="s">
         <v>42</v>
       </c>
@@ -20450,7 +20438,7 @@
       <c r="CL188" s="69"/>
     </row>
     <row r="189" spans="1:90">
-      <c r="A189" s="84"/>
+      <c r="A189" s="88"/>
       <c r="B189" s="13" t="s">
         <v>43</v>
       </c>
@@ -20544,7 +20532,7 @@
       <c r="CL189" s="69"/>
     </row>
     <row r="190" spans="1:90">
-      <c r="A190" s="84"/>
+      <c r="A190" s="88"/>
       <c r="B190" s="13" t="s">
         <v>44</v>
       </c>
@@ -20638,7 +20626,7 @@
       <c r="CL190" s="69"/>
     </row>
     <row r="191" spans="1:90">
-      <c r="A191" s="84"/>
+      <c r="A191" s="88"/>
       <c r="B191" s="13" t="s">
         <v>45</v>
       </c>
@@ -20732,7 +20720,7 @@
       <c r="CL191" s="69"/>
     </row>
     <row r="192" spans="1:90">
-      <c r="A192" s="84"/>
+      <c r="A192" s="88"/>
       <c r="B192" s="13" t="s">
         <v>46</v>
       </c>
@@ -20826,7 +20814,7 @@
       <c r="CL192" s="69"/>
     </row>
     <row r="193" spans="1:90">
-      <c r="A193" s="84"/>
+      <c r="A193" s="88"/>
       <c r="B193" s="13" t="s">
         <v>47</v>
       </c>
@@ -20920,7 +20908,7 @@
       <c r="CL193" s="69"/>
     </row>
     <row r="194" spans="1:90">
-      <c r="A194" s="84"/>
+      <c r="A194" s="88"/>
       <c r="B194" s="13" t="s">
         <v>48</v>
       </c>
@@ -21014,7 +21002,7 @@
       <c r="CL194" s="69"/>
     </row>
     <row r="195" spans="1:90">
-      <c r="A195" s="84"/>
+      <c r="A195" s="88"/>
       <c r="B195" s="13" t="s">
         <v>49</v>
       </c>
@@ -21108,7 +21096,7 @@
       <c r="CL195" s="69"/>
     </row>
     <row r="196" spans="1:90">
-      <c r="A196" s="84"/>
+      <c r="A196" s="88"/>
       <c r="B196" s="13" t="s">
         <v>50</v>
       </c>
@@ -21202,7 +21190,7 @@
       <c r="CL196" s="69"/>
     </row>
     <row r="197" spans="1:90">
-      <c r="A197" s="84"/>
+      <c r="A197" s="88"/>
       <c r="B197" s="13" t="s">
         <v>51</v>
       </c>
@@ -21296,7 +21284,7 @@
       <c r="CL197" s="69"/>
     </row>
     <row r="198" spans="1:90">
-      <c r="A198" s="84"/>
+      <c r="A198" s="88"/>
       <c r="B198" s="13" t="s">
         <v>52</v>
       </c>
@@ -21390,7 +21378,7 @@
       <c r="CL198" s="69"/>
     </row>
     <row r="199" spans="1:90">
-      <c r="A199" s="84"/>
+      <c r="A199" s="88"/>
       <c r="B199" s="13" t="s">
         <v>53</v>
       </c>
@@ -21484,7 +21472,7 @@
       <c r="CL199" s="69"/>
     </row>
     <row r="200" spans="1:90">
-      <c r="A200" s="84"/>
+      <c r="A200" s="88"/>
       <c r="B200" s="13" t="s">
         <v>54</v>
       </c>
@@ -21578,7 +21566,7 @@
       <c r="CL200" s="69"/>
     </row>
     <row r="201" spans="1:90">
-      <c r="A201" s="84"/>
+      <c r="A201" s="88"/>
       <c r="B201" s="13" t="s">
         <v>55</v>
       </c>
@@ -21672,7 +21660,7 @@
       <c r="CL201" s="69"/>
     </row>
     <row r="202" spans="1:90">
-      <c r="A202" s="84"/>
+      <c r="A202" s="88"/>
       <c r="B202" s="13" t="s">
         <v>56</v>
       </c>
@@ -21766,7 +21754,7 @@
       <c r="CL202" s="69"/>
     </row>
     <row r="203" spans="1:90">
-      <c r="A203" s="84"/>
+      <c r="A203" s="88"/>
       <c r="B203" s="13" t="s">
         <v>57</v>
       </c>
@@ -21860,7 +21848,7 @@
       <c r="CL203" s="69"/>
     </row>
     <row r="204" spans="1:90">
-      <c r="A204" s="84"/>
+      <c r="A204" s="88"/>
       <c r="B204" s="13" t="s">
         <v>58</v>
       </c>
@@ -21954,10 +21942,10 @@
       <c r="CL204" s="69"/>
     </row>
     <row r="205" spans="1:90" s="15" customFormat="1">
-      <c r="A205" s="88" t="s">
+      <c r="A205" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B205" s="88"/>
+      <c r="B205" s="89"/>
       <c r="C205" s="53"/>
       <c r="D205" s="56"/>
       <c r="E205" s="56"/>
@@ -22048,10 +22036,10 @@
       <c r="CL205" s="73"/>
     </row>
     <row r="206" spans="1:90" s="15" customFormat="1">
-      <c r="A206" s="89" t="s">
+      <c r="A206" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B206" s="89"/>
+      <c r="B206" s="90"/>
       <c r="C206" s="57"/>
       <c r="D206" s="57"/>
       <c r="E206" s="57"/>
@@ -22142,10 +22130,10 @@
       <c r="CL206" s="57"/>
     </row>
     <row r="207" spans="1:90" s="15" customFormat="1">
-      <c r="A207" s="89" t="s">
+      <c r="A207" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="B207" s="89"/>
+      <c r="B207" s="90"/>
       <c r="C207" s="28"/>
       <c r="D207" s="28"/>
       <c r="E207" s="28"/>
@@ -22236,13 +22224,19 @@
       <c r="CL207" s="28"/>
     </row>
     <row r="208" spans="1:90">
-      <c r="A208" s="85" t="s">
+      <c r="A208" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B208" s="85"/>
+      <c r="B208" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A7:A53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A208:B208"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
@@ -22255,12 +22249,6 @@
     <mergeCell ref="A205:B205"/>
     <mergeCell ref="A206:B206"/>
     <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A7:A53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22270,11 +22258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7908430-9EB7-4634-B714-4C865F47E7B3}">
   <dimension ref="A1:CL219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CM19" sqref="CM19"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -22853,7 +22841,7 @@
       <c r="CL6" s="30"/>
     </row>
     <row r="7" spans="1:90">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -22949,7 +22937,7 @@
       <c r="CL7" s="57"/>
     </row>
     <row r="8" spans="1:90">
-      <c r="A8" s="93"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
@@ -23043,7 +23031,7 @@
       <c r="CL8" s="57"/>
     </row>
     <row r="9" spans="1:90">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="7" t="s">
         <v>79</v>
       </c>
@@ -23137,7 +23125,7 @@
       <c r="CL9" s="57"/>
     </row>
     <row r="10" spans="1:90">
-      <c r="A10" s="93"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
@@ -23231,7 +23219,7 @@
       <c r="CL10" s="57"/>
     </row>
     <row r="11" spans="1:90">
-      <c r="A11" s="93"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="7" t="s">
         <v>81</v>
       </c>
@@ -23325,7 +23313,7 @@
       <c r="CL11" s="57"/>
     </row>
     <row r="12" spans="1:90">
-      <c r="A12" s="93"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="7" t="s">
         <v>82</v>
       </c>
@@ -23419,7 +23407,7 @@
       <c r="CL12" s="57"/>
     </row>
     <row r="13" spans="1:90">
-      <c r="A13" s="93"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="16" t="s">
         <v>59</v>
       </c>
@@ -23513,7 +23501,7 @@
       <c r="CL13" s="57"/>
     </row>
     <row r="14" spans="1:90">
-      <c r="A14" s="93"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
@@ -23607,7 +23595,7 @@
       <c r="CL14" s="57"/>
     </row>
     <row r="15" spans="1:90">
-      <c r="A15" s="93"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="7" t="s">
         <v>84</v>
       </c>
@@ -23701,7 +23689,7 @@
       <c r="CL15" s="57"/>
     </row>
     <row r="16" spans="1:90">
-      <c r="A16" s="93"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="7" t="s">
         <v>85</v>
       </c>
@@ -23795,7 +23783,7 @@
       <c r="CL16" s="57"/>
     </row>
     <row r="17" spans="1:90">
-      <c r="A17" s="93"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="7" t="s">
         <v>86</v>
       </c>
@@ -23889,7 +23877,7 @@
       <c r="CL17" s="57"/>
     </row>
     <row r="18" spans="1:90">
-      <c r="A18" s="93"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="7" t="s">
         <v>87</v>
       </c>
@@ -23983,7 +23971,7 @@
       <c r="CL18" s="57"/>
     </row>
     <row r="19" spans="1:90">
-      <c r="A19" s="93"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="17" t="s">
         <v>88</v>
       </c>
@@ -24077,7 +24065,7 @@
       <c r="CL19" s="60"/>
     </row>
     <row r="20" spans="1:90">
-      <c r="A20" s="93"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="7" t="s">
         <v>89</v>
       </c>
@@ -24171,7 +24159,7 @@
       <c r="CL20" s="57"/>
     </row>
     <row r="21" spans="1:90">
-      <c r="A21" s="94"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="17" t="s">
         <v>90</v>
       </c>
@@ -24265,7 +24253,7 @@
       <c r="CL21" s="60"/>
     </row>
     <row r="22" spans="1:90">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -24361,7 +24349,7 @@
       <c r="CL22" s="57"/>
     </row>
     <row r="23" spans="1:90">
-      <c r="A23" s="93"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
@@ -24455,7 +24443,7 @@
       <c r="CL23" s="57"/>
     </row>
     <row r="24" spans="1:90">
-      <c r="A24" s="93"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="7" t="s">
         <v>92</v>
       </c>
@@ -24549,7 +24537,7 @@
       <c r="CL24" s="57"/>
     </row>
     <row r="25" spans="1:90">
-      <c r="A25" s="93"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="16" t="s">
         <v>62</v>
       </c>
@@ -24643,7 +24631,7 @@
       <c r="CL25" s="57"/>
     </row>
     <row r="26" spans="1:90">
-      <c r="A26" s="93"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -24737,7 +24725,7 @@
       <c r="CL26" s="57"/>
     </row>
     <row r="27" spans="1:90">
-      <c r="A27" s="94"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="17" t="s">
         <v>93</v>
       </c>
@@ -24831,7 +24819,7 @@
       <c r="CL27" s="60"/>
     </row>
     <row r="28" spans="1:90">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="93" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -24927,7 +24915,7 @@
       <c r="CL28" s="57"/>
     </row>
     <row r="29" spans="1:90">
-      <c r="A29" s="93"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
@@ -25021,7 +25009,7 @@
       <c r="CL29" s="57"/>
     </row>
     <row r="30" spans="1:90">
-      <c r="A30" s="93"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="7" t="s">
         <v>95</v>
       </c>
@@ -25115,7 +25103,7 @@
       <c r="CL30" s="57"/>
     </row>
     <row r="31" spans="1:90">
-      <c r="A31" s="93"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="7" t="s">
         <v>96</v>
       </c>
@@ -25209,7 +25197,7 @@
       <c r="CL31" s="57"/>
     </row>
     <row r="32" spans="1:90">
-      <c r="A32" s="93"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="7" t="s">
         <v>97</v>
       </c>
@@ -25303,7 +25291,7 @@
       <c r="CL32" s="57"/>
     </row>
     <row r="33" spans="1:90">
-      <c r="A33" s="93"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="7" t="s">
         <v>98</v>
       </c>
@@ -25397,7 +25385,7 @@
       <c r="CL33" s="57"/>
     </row>
     <row r="34" spans="1:90">
-      <c r="A34" s="93"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="7" t="s">
         <v>99</v>
       </c>
@@ -25491,7 +25479,7 @@
       <c r="CL34" s="57"/>
     </row>
     <row r="35" spans="1:90">
-      <c r="A35" s="93"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
@@ -25585,7 +25573,7 @@
       <c r="CL35" s="57"/>
     </row>
     <row r="36" spans="1:90">
-      <c r="A36" s="93"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="7" t="s">
         <v>101</v>
       </c>
@@ -25679,7 +25667,7 @@
       <c r="CL36" s="57"/>
     </row>
     <row r="37" spans="1:90">
-      <c r="A37" s="93"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="7" t="s">
         <v>102</v>
       </c>
@@ -25773,7 +25761,7 @@
       <c r="CL37" s="57"/>
     </row>
     <row r="38" spans="1:90">
-      <c r="A38" s="93"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="7" t="s">
         <v>103</v>
       </c>
@@ -25867,7 +25855,7 @@
       <c r="CL38" s="57"/>
     </row>
     <row r="39" spans="1:90">
-      <c r="A39" s="94"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="7" t="s">
         <v>104</v>
       </c>
@@ -26413,15 +26401,13 @@
       </c>
     </row>
     <row r="43" spans="1:90">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="93" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>298</v>
-      </c>
+      <c r="C43" s="28"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
@@ -26511,13 +26497,11 @@
       <c r="CL43" s="57"/>
     </row>
     <row r="44" spans="1:90">
-      <c r="A44" s="93"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>299</v>
-      </c>
+      <c r="C44" s="28"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
@@ -26607,13 +26591,11 @@
       <c r="CL44" s="57"/>
     </row>
     <row r="45" spans="1:90">
-      <c r="A45" s="93"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>300</v>
-      </c>
+      <c r="C45" s="28"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
@@ -26703,13 +26685,11 @@
       <c r="CL45" s="57"/>
     </row>
     <row r="46" spans="1:90">
-      <c r="A46" s="94"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>301</v>
-      </c>
+      <c r="C46" s="28"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="57"/>
@@ -26889,28 +26869,28 @@
       <c r="CL47" s="29"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="90" t="s">
+      <c r="D49" s="92"/>
+      <c r="E49" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="91"/>
-      <c r="G49" s="90" t="s">
+      <c r="F49" s="92"/>
+      <c r="G49" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="H49" s="91"/>
+      <c r="H49" s="92"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="30" t="s">
         <v>114</v>
       </c>
@@ -28701,7 +28681,7 @@
       <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="98" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="39" t="s">
@@ -28722,7 +28702,7 @@
       <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="39" t="s">
         <v>131</v>
       </c>
@@ -28741,7 +28721,7 @@
       <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="44" t="s">
         <v>134</v>
       </c>
@@ -28760,7 +28740,7 @@
       <c r="B9" s="41">
         <v>5</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="45" t="s">
         <v>137</v>
       </c>
@@ -28779,7 +28759,7 @@
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="101" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -28800,7 +28780,7 @@
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="39" t="s">
         <v>131</v>
       </c>
@@ -28819,7 +28799,7 @@
       <c r="B12" s="43">
         <v>8</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="39" t="s">
         <v>134</v>
       </c>
@@ -28838,7 +28818,7 @@
       <c r="B13" s="41">
         <v>9</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="39" t="s">
         <v>137</v>
       </c>
@@ -28857,7 +28837,7 @@
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="101" t="s">
         <v>149</v>
       </c>
       <c r="D14" s="39" t="s">
@@ -28878,7 +28858,7 @@
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="39" t="s">
         <v>153</v>
       </c>
@@ -28897,7 +28877,7 @@
       <c r="B16" s="37">
         <v>12</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="39" t="s">
         <v>156</v>
       </c>
@@ -28916,7 +28896,7 @@
       <c r="B17" s="37">
         <v>13</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="39" t="s">
         <v>159</v>
       </c>
@@ -28935,7 +28915,7 @@
       <c r="B18" s="37">
         <v>14</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="39" t="s">
         <v>162</v>
       </c>
@@ -28954,7 +28934,7 @@
       <c r="B19" s="37">
         <v>15</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="39" t="s">
         <v>165</v>
       </c>
@@ -28973,7 +28953,7 @@
       <c r="B20" s="37">
         <v>16</v>
       </c>
-      <c r="C20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="44" t="s">
         <v>168</v>
       </c>
@@ -28992,7 +28972,7 @@
       <c r="B21" s="37">
         <v>17</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="45" t="s">
         <v>171</v>
       </c>
@@ -29011,7 +28991,7 @@
       <c r="B22" s="37">
         <v>18</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="39" t="s">
         <v>174</v>
       </c>
@@ -29030,7 +29010,7 @@
       <c r="B23" s="43">
         <v>19</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="44" t="s">
         <v>177</v>
       </c>
@@ -29070,7 +29050,7 @@
       <c r="B25" s="41">
         <v>21</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="98" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="49" t="s">
@@ -29091,7 +29071,7 @@
       <c r="B26" s="37">
         <v>22</v>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="38" t="s">
         <v>131</v>
       </c>
@@ -29110,7 +29090,7 @@
       <c r="B27" s="37">
         <v>23</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="101" t="s">
         <v>187</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -29131,7 +29111,7 @@
       <c r="B28" s="37">
         <v>24</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="39" t="s">
         <v>191</v>
       </c>
@@ -29386,7 +29366,7 @@
       <c r="B43" s="37"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="74" t="s">
         <v>225</v>
       </c>
       <c r="F43" s="39" t="s">
@@ -29395,7 +29375,7 @@
       <c r="G43" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="102" t="s">
+      <c r="H43" s="74" t="s">
         <v>227</v>
       </c>
     </row>
@@ -29403,7 +29383,7 @@
       <c r="B44" s="37"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="74" t="s">
         <v>225</v>
       </c>
       <c r="F44" s="39" t="s">
@@ -29412,7 +29392,7 @@
       <c r="G44" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="102" t="s">
+      <c r="H44" s="74" t="s">
         <v>229</v>
       </c>
     </row>
@@ -29592,7 +29572,7 @@
       <c r="B57" s="37"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="102" t="s">
+      <c r="E57" s="74" t="s">
         <v>257</v>
       </c>
       <c r="F57" s="39" t="s">
@@ -29601,7 +29581,7 @@
       <c r="G57" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="74" t="s">
         <v>259</v>
       </c>
     </row>
@@ -29737,7 +29717,7 @@
         <v>278</v>
       </c>
       <c r="G67" s="37"/>
-      <c r="H67" s="102" t="s">
+      <c r="H67" s="74" t="s">
         <v>279</v>
       </c>
     </row>
@@ -29883,12 +29863,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30095,15 +30072,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6685B771-A956-4807-9560-ED9CB58D529D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B481AAFC-BD8E-47AE-9607-8E403124D3F4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30128,10 +30109,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B481AAFC-BD8E-47AE-9607-8E403124D3F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6685B771-A956-4807-9560-ED9CB58D529D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>